--- a/data/trans_dic/POLIMEDICACION-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,27 +633,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -662,17 +663,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,25%</t>
         </is>
       </c>
     </row>
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,68</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 0,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
     </row>
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 2,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0,28; 2,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 1,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,36; 1,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,13; 1,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 3,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,73</t>
+          <t>0,13; 2,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0,91; 3,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,08; 3,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>1,45; 5,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,71; 2,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 3,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>0,94; 3,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>0,71; 2,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,45; 4,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,44; 2,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,23; 3,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>4,91; 11,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,76</t>
+          <t>1,01; 3,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>1,11; 2,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>2,02; 6,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,41</t>
+          <t>0,93; 2,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,69</t>
+          <t>5,24; 9,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>2,89; 7,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,69; 7,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,79</t>
+          <t>3,09; 6,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,99</t>
+          <t>10,71; 16,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>6,13; 11,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,9</t>
+          <t>4,56; 7,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,36</t>
+          <t>7,18; 10,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,63</t>
+          <t>5,1; 8,76</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,92</t>
+          <t>8,24; 13,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,8</t>
+          <t>6,66; 13,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,72</t>
+          <t>3,59; 7,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,97</t>
+          <t>6,76; 11,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,89</t>
+          <t>3,89; 21,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,15</t>
+          <t>8,92; 14,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,95</t>
+          <t>8,31; 11,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,33</t>
+          <t>4,42; 15,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,98</t>
+          <t>6,75; 10,13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>31,37%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>18,85%</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,46</t>
+          <t>20,09; 28,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,17</t>
+          <t>12,24; 21,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,81</t>
+          <t>8,85; 14,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,82</t>
+          <t>19,12; 25,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,53</t>
+          <t>27,1; 36,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,41</t>
+          <t>20,41; 27,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,64</t>
+          <t>20,61; 25,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 6,83</t>
+          <t>22,26; 28,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,66</t>
+          <t>16,27; 21,18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,11%</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1456,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,49</t>
+          <t>5,87; 7,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,27</t>
+          <t>2,44; 4,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,69; 9,8</t>
+          <t>2,48; 3,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,03; 12,5</t>
+          <t>6,02; 7,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,44; 14,53</t>
+          <t>6,92; 10,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,55</t>
+          <t>6,17; 7,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,42</t>
+          <t>6,17; 7,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,0; 10,69</t>
+          <t>5,11; 7,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,5; 6,87</t>
+          <t>4,62; 5,7</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>5,63%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>11,06%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>9,61%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>12,56%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>16,43%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>8,26%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>8,78%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>14,2%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>8,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>3,86; 7,66</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>8,63; 13,76</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>7,75; 12,29</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>9,83; 15,97</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>8,97; 21,78</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>6,62; 10,57</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 10,46</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>9,47; 16,8</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>7,46; 10,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>12,58%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>18,71%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>22,04%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>25,13%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>34,42%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>20,75%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>19,21%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>28,26%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>21,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>9,98; 15,83</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>15,13; 22,56</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>18,73; 25,6</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>21,42; 28,72</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>31,1; 37,66</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>18,09; 23,76</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>16,9; 21,82</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>25,64; 30,91</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>19,3; 23,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>4,2%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>5,11%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>5,56%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>8,86%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>10,38%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>5,63%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>6,54%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>7,9%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>5,59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>3,53; 5,03</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>4,41; 5,9</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>4,95; 6,22</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>7,86; 9,89</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>9,19; 11,35</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>5,0; 6,27</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>5,95; 7,19</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>7,26; 8,47</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>5,17; 6,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1856,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumir &gt;4 medicamentos de la lista completa de medicamentos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 320</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4766</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2962</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 344</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8785</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1207</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 332</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8885</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2708</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2383</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3283</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 334</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2857</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3371</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 576</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>644; 9106</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>602; 5801</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 507</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>832; 8474</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1423; 6985</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4803</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1578</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1848</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6558</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2401</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11361</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8831</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>123; 1816</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1072; 10817</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>321; 5499</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>889; 3252</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3469; 11367</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3612; 13227</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1374; 3983</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6082; 19364</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4689; 15110</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1913</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13528</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3862</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2939</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28697</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4852</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>42224</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9871</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>986; 3532</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2803; 27605</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1307; 8233</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1693; 5111</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>19856; 48315</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2827; 10691</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3071; 7060</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>20809; 62836</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5345; 16342</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9324</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16075</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11094</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6474</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>42580</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>22011</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15798</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>58656</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>33105</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6653; 12668</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9816; 24241</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6315; 17798</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4551; 9174</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>34151; 52428</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15585; 29545</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12505; 19804</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>47220; 70986</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>24905; 42815</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11494</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>19386</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9720</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10209</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>49160</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>21348</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>21704</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>68547</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>31069</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8865; 14695</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>13863; 27511</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6603; 13549</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7771; 13306</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>17591; 95827</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>16823; 27140</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>18495; 26353</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>29192; 104156</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>25168; 37753</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>23107</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>24768</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>16808</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>29463</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>73277</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>50734</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>52571</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>98045</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>67542</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>19360; 27524</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>18579; 32335</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>12970; 20958</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>25604; 33652</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>63307; 84503</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>43240; 58231</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>47465; 58639</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>85783; 110303</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>58310; 75900</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>46391</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>78561</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>44809</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>51033</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>204932</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>109737</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>97424</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>283493</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>154546</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>40936; 52926</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>51220; 95470</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>36213; 54443</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>45534; 57509</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>154503; 241288</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>96512; 124761</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>89707; 106304</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>221513; 329308</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>139811; 172613</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/POLIMEDICACION-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumir &gt;4 medicamentos de la lista completa de medicamentos</t>
+          <t>Polimedicación (5 o más medicamentos)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumir &gt;4 medicamentos de la lista completa de medicamentos</t>
+          <t>Polimedicación (5 o más medicamentos)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/POLIMEDICACION-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Edad-trans_dic.xlsx
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 320</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 4766</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0; 344</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0; 1207</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0; 332</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 334</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2857</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">

--- a/data/trans_dic/POLIMEDICACION-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos)</t>
+          <t>Polimedicación (5 o más medicamentos) (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos)</t>
+          <t>Polimedicación (5 o más medicamentos) (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/POLIMEDICACION-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Edad-trans_dic.xlsx
@@ -706,7 +706,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,77</t>
+          <t>0,0; 4,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,92</t>
+          <t>0,0; 0,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,9</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,39</t>
+          <t>0,0; 0,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,56</t>
+          <t>0,15; 1,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,92</t>
+          <t>0,17; 1,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,48</t>
+          <t>0,35; 3,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,34</t>
+          <t>0,69; 2,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,52</t>
+          <t>1,04; 3,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,07</t>
+          <t>0,53; 1,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,06</t>
+          <t>1,07; 3,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,53</t>
+          <t>0,73; 2,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,4</t>
+          <t>0,47; 4,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,7</t>
+          <t>0,96; 2,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,91; 11,94</t>
+          <t>5,07; 12,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,55</t>
+          <t>1,04; 2,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 6,09</t>
+          <t>1,82; 6,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,99</t>
+          <t>4,74; 8,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,15</t>
+          <t>2,94; 7,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,23</t>
+          <t>2,92; 5,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,71; 16,44</t>
+          <t>10,74; 16,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,56; 7,22</t>
+          <t>4,02; 6,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 10,79</t>
+          <t>7,27; 10,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,24; 13,66</t>
+          <t>9,19; 14,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,66; 13,22</t>
+          <t>6,45; 12,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,76; 11,58</t>
+          <t>7,0; 11,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,89; 21,17</t>
+          <t>2,83; 21,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,31; 11,84</t>
+          <t>8,81; 12,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,42; 15,76</t>
+          <t>3,97; 15,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,09; 28,56</t>
+          <t>18,44; 25,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,24; 21,3</t>
+          <t>11,78; 21,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,12; 25,13</t>
+          <t>17,43; 23,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,1; 36,17</t>
+          <t>26,99; 36,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,61; 25,46</t>
+          <t>18,86; 23,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,26; 28,62</t>
+          <t>22,08; 28,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,59</t>
+          <t>5,14; 6,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,54</t>
+          <t>2,56; 4,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,02; 7,6</t>
+          <t>5,34; 6,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,92; 10,81</t>
+          <t>6,39; 10,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,17; 7,31</t>
+          <t>5,41; 6,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,6</t>
+          <t>5,23; 7,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0; 8785</t>
+          <t>0; 7411</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0; 8885</t>
+          <t>0; 7981</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>115</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>115</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 576</t>
+          <t>0; 662</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>644; 9106</t>
+          <t>0; 8986</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 507</t>
+          <t>0; 653</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>832; 8474</t>
+          <t>839; 8270</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>594</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>2094</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>123; 1816</t>
+          <t>174; 1657</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1072; 10817</t>
+          <t>1101; 11270</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>889; 3252</t>
+          <t>762; 2712</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3469; 11367</t>
+          <t>3344; 12335</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1374; 3983</t>
+          <t>1128; 3593</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6082; 19364</t>
+          <t>6798; 19820</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1913</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2939</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4852</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>986; 3532</t>
+          <t>1060; 3574</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2803; 27605</t>
+          <t>2942; 27142</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1693; 5111</t>
+          <t>1458; 4100</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19856; 48315</t>
+          <t>20505; 50159</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3071; 7060</t>
+          <t>3080; 6733</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20809; 62836</t>
+          <t>18796; 65010</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9324</t>
+          <t>8063</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6474</t>
+          <t>6259</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>14322</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6653; 12668</t>
+          <t>6139; 10972</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9816; 24241</t>
+          <t>9961; 24771</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4551; 9174</t>
+          <t>4435; 8804</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>34151; 52428</t>
+          <t>34259; 52539</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12505; 19804</t>
+          <t>11325; 17798</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>47220; 70986</t>
+          <t>47857; 71763</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>11494</t>
+          <t>12354</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10209</t>
+          <t>10485</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>21704</t>
+          <t>22839</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8865; 14695</t>
+          <t>9598; 15520</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13863; 27511</t>
+          <t>13420; 26139</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7771; 13306</t>
+          <t>8105; 13369</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17591; 95827</t>
+          <t>12820; 95701</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18495; 26353</t>
+          <t>19411; 26902</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>29192; 104156</t>
+          <t>26210; 105378</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>23107</t>
+          <t>19393</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>29463</t>
+          <t>26997</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>52571</t>
+          <t>46390</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>19360; 27524</t>
+          <t>16455; 23042</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>18579; 32335</t>
+          <t>17872; 32539</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>25604; 33652</t>
+          <t>23064; 30892</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>63307; 84503</t>
+          <t>63051; 84361</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>47465; 58639</t>
+          <t>41776; 51601</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>85783; 110303</t>
+          <t>85086; 110788</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>46391</t>
+          <t>42371</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>51033</t>
+          <t>47957</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97424</t>
+          <t>90328</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>40936; 52926</t>
+          <t>37199; 47391</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>51220; 95470</t>
+          <t>53773; 97502</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>45534; 57509</t>
+          <t>42629; 53823</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>154503; 241288</t>
+          <t>142543; 238249</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>89707; 106304</t>
+          <t>82367; 97875</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>221513; 329308</t>
+          <t>226505; 325252</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/POLIMEDICACION-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -638,24 +638,24 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,88%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -663,17 +663,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
         </is>
       </c>
     </row>
@@ -691,24 +691,24 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,74</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,74</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,21</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,02</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -716,17 +716,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,21</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,8</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,9</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,8</t>
         </is>
       </c>
     </row>
@@ -748,42 +748,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,17%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,13%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,08%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,56%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
         </is>
       </c>
     </row>
@@ -801,42 +801,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,85</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,85</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0,31; 2,86</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 2,74</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,97</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,86</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 2,74</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>0,16; 1,57</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 1,77</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,46</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 1,52</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 1,77</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,57%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,55%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,36%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,03%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,92%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,98%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,79%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,32; 3,16</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 2,21</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,17; 1,59</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 3,63</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 2,21</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,13; 3,83</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 5,32</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,69; 2,45</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 3,82</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,45; 5,32</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>1,04; 2,92</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 3,04</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,53; 1,67</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,07; 3,13</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 3,04</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,36%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,16%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,3%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>1,7%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,09%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>1,54%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4,09%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,79; 5,59</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 2,77</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,73; 2,47</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 4,33</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 2,77</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>4,37; 7,87</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 3,83</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>0,96; 2,69</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>5,07; 12,39</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 3,83</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>3,5; 5,99</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 2,84</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>1,04; 2,26</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 6,3</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 2,84</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>6,22%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,74%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,73%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>13,56%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>4,12%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>13,35%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>8,66%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>8,95%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>5,09%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8,91%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>2,77; 6,97</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 7,58</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>4,74; 8,47</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,94; 7,3</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 7,58</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>10,93; 16,66</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,13; 11,63</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>2,92; 5,8</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>10,74; 16,48</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>6,13; 11,63</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>7,33; 10,97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,1; 8,76</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>4,02; 6,32</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>7,27; 10,91</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>5,1; 8,76</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>11,83%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,32%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,28%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>20,34%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>9,06%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>10,86%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>11,31%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>14,98%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8,34%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>10,37%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>10,37%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>5,99; 11,79</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3,59; 7,36</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>9,19; 14,86</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,45; 12,56</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,59; 7,36</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>16,74; 23,9</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8,92; 14,38</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>7,0; 11,55</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 21,14</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>8,92; 14,38</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>12,74; 17,74</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6,75; 10,13</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>8,81; 12,21</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>3,97; 15,95</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>6,75; 10,13</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>21,73%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>16,32%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>11,47%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>31,39%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23,95%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>20,4%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>31,37%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>23,95%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>25,79%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>20,94%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>25,44%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>18,85%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>12,46; 22,45</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8,85; 14,3</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>18,44; 25,83</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>11,78; 21,44</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>8,85; 14,3</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>27,0; 36,05</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20,41; 27,49</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>17,43; 23,35</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>26,99; 36,11</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>20,41; 27,49</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>22,33; 29,04</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 21,18</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>18,86; 23,29</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>22,08; 28,75</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>16,27; 21,18</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>5,85%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3,74%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>10,15%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>6,01%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>9,18%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>7,02%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>7,21%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>5,94%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>6,54%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>5,11%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>3,32; 4,87</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 3,72</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>5,14; 6,55</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 4,64</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>2,48; 3,72</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>9,12; 11,13</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 7,98</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>5,34; 6,75</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>6,39; 10,68</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>6,17; 7,98</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>6,56; 7,87</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4,62; 5,7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>5,41; 6,43</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>5,23; 7,5</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>4,62; 5,7</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1665,42 +1665,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -1718,42 +1718,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>847</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1621</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>1621</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>847</t>
         </is>
       </c>
     </row>
@@ -1771,24 +1771,24 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0; 2962</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0; 2962</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0; 9255</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0; 7411</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -1796,17 +1796,17 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>0; 10171</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2708</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0; 7981</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0; 2708</t>
         </is>
       </c>
     </row>
@@ -1828,42 +1828,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
     </row>
@@ -1881,42 +1881,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>900</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2967</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2383</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>115</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3039</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2383</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>2967</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3283</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>115</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3039</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3283</t>
         </is>
       </c>
     </row>
@@ -1934,42 +1934,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>0; 3371</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 3371</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>867; 8099</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>602; 5801</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0; 662</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 8986</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>602; 5801</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>877; 8576</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1423; 6985</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0; 653</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>839; 8270</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1423; 6985</t>
         </is>
       </c>
     </row>
@@ -1986,14 +1986,14 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
           <t>3</t>
@@ -2001,32 +2001,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>13</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
         </is>
       </c>
     </row>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1578</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>594</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4803</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1578</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>8025</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1501</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>6558</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7252</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>13036</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8831</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>2094</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>11361</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>8831</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1180; 11656</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>321; 5499</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>174; 1657</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1101; 11270</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>321; 5499</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>4222; 14314</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3612; 13227</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>762; 2712</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3344; 12335</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3612; 13227</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>7704; 21643</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4689; 15110</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>1128; 3593</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6798; 19820</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>4689; 15110</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>28</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>13805</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3862</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1968</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>13528</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3862</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>26340</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>2600</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>28697</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>6009</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>40145</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9871</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>4568</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>42224</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>9871</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>7602; 23711</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1307; 8233</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1060; 3574</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2942; 27142</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1307; 8233</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>19291; 34721</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2827; 10691</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>1458; 4100</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>20505; 50159</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2827; 10691</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>30265; 51800</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5345; 16342</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>3080; 6733</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>18796; 65010</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>5345; 16342</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>82</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>57</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>16328</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11094</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>8063</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>16075</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>11094</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>48877</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>22011</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>6259</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>42580</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>22011</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>65204</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>33105</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>14322</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>58656</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>33105</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>10186; 25637</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6315; 17798</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>6139; 10972</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>9961; 24771</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>6315; 17798</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>39387; 60024</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15585; 29545</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>4435; 8804</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>34259; 52539</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>15585; 29545</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>53372; 79913</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>24905; 42815</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>11325; 17798</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>47857; 71763</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>24905; 42815</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
           <t>62</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>95</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>131</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>95</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>20203</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9720</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>12354</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>19386</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>9720</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>54911</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>21348</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>10485</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>49160</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>21348</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>75113</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>31069</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>22839</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>68547</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>31069</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>13850; 27271</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6603; 13549</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>9598; 15520</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>13420; 26139</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>6603; 13549</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>45191; 64538</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>16823; 27140</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>8105; 13369</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>12820; 95701</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>16823; 27140</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>63888; 88921</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>25168; 37753</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>19411; 26902</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>26210; 105378</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>25168; 37753</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>168</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>292</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>197</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>28335</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>16808</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>19393</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>24768</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>16808</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>80551</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>50734</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>26997</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>73277</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>50734</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>108886</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>67542</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>46390</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>98045</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>67542</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>20631; 37177</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>12970; 20958</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>16455; 23042</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>17872; 32539</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>12970; 20958</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>69276; 92517</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>43240; 58231</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>23064; 30892</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>63051; 84361</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>43240; 58231</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>94290; 122596</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>58310; 75900</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>41776; 51601</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>85086; 110788</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>58310; 75900</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>253</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>294</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>366</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>547</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>475</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>387</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>83682</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>44809</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>42371</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>78561</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>44809</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>223703</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>109737</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>47957</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>204932</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>109737</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>307385</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>154546</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>90328</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>283493</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>154546</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>68499; 100327</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>36213; 54443</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>37199; 47391</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>53773; 97502</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>36213; 54443</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>201057; 245383</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>96512; 124761</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>42629; 53823</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>142543; 238249</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>96512; 124761</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>279926; 335473</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>139811; 172613</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>82367; 97875</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>226505; 325252</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>139811; 172613</t>
         </is>
       </c>
     </row>
